--- a/biology/Botanique/Echinodorus_grisebachii/Echinodorus_grisebachii.xlsx
+++ b/biology/Botanique/Echinodorus_grisebachii/Echinodorus_grisebachii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinodorus grisebachii, l’Echinodorus de Grisebach, est une espèce de plante aquatique. Son nom commémore August Heinrich Rudolf Grisebach (1814-1879).
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa répartition géographique couvre l'Amérique centrale et l'Amérique du Sud.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles peuvent atteindre 60 cm.
 </t>
@@ -573,7 +589,9 @@
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la plante n'a pas d'exigence particulière concernant l'eau, elle demandera un éclairage plus intensif. Dans de bonnes conditions de culture, on préférera la maintenir en solitaire dans un endroit dégagé, au mieux au centre de l'aquarium où elle sera du meilleur effet.
 </t>
